--- a/data/biostudies/cardiac/Fluctuating_DMSO2_Cardiac_Biostudies.xlsx
+++ b/data/biostudies/cardiac/Fluctuating_DMSO2_Cardiac_Biostudies.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="-15" windowWidth="17430" windowHeight="12285"/>
+    <workbookView xWindow="6980" yWindow="-20" windowWidth="17430" windowHeight="12290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="127">
   <si>
     <t>Study</t>
   </si>
@@ -374,12 +374,33 @@
   </si>
   <si>
     <t>Total_RNA/Cardiac/control_DF2/concatenated/17OC009_RNA sample description.xlsx</t>
+  </si>
+  <si>
+    <t>Total_RNA/Cardiac/control_DF2/concatenated/DF2_The_000_1_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Total_RNA/Cardiac/control_DF2/concatenated/DF2_The_000_1_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>Total_RNA/Cardiac/control_DF2/concatenated/DF2_The_000_2_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Total_RNA/Cardiac/control_DF2/concatenated/DF2_The_000_2_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>Total_RNA/Cardiac/control_DF2/concatenated/DF2_The_000_3_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Total_RNA/Cardiac/control_DF2/concatenated/DF2_The_000_3_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>T0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1069,6 +1090,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1116,7 +1140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,7 +1175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1362,22 +1386,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="80.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="27.42578125" style="3"/>
+    <col min="1" max="1" width="80.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="27.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1393,7 +1417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
@@ -1401,7 +1425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>49</v>
       </c>
@@ -1409,7 +1433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>51</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1453,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1467,7 @@
       <c r="G8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1481,7 @@
       <c r="G9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1471,7 +1495,7 @@
       <c r="G10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1509,7 @@
       <c r="G11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1523,7 @@
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1537,7 @@
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1551,7 @@
       <c r="G14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1565,7 @@
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1577,7 @@
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>57</v>
       </c>
@@ -1565,7 +1589,7 @@
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
@@ -1577,7 +1601,7 @@
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1613,7 @@
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
@@ -1601,7 +1625,7 @@
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1637,7 @@
       <c r="G21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -1625,7 +1649,7 @@
       <c r="G22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +1661,7 @@
       <c r="G23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
@@ -1647,7 +1671,7 @@
       <c r="G24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>59</v>
       </c>
@@ -1657,7 +1681,7 @@
       <c r="G25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>52</v>
       </c>
@@ -1667,7 +1691,7 @@
       <c r="G26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1687,9 +1711,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B29" s="35">
         <v>958</v>
@@ -1701,15 +1725,15 @@
         <v>75</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B30" s="30">
         <f>B29</f>
@@ -1723,15 +1747,15 @@
         <v>75</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B31" s="30">
         <f>B29+1</f>
@@ -1745,15 +1769,15 @@
         <v>75</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B32" s="30">
         <f>B31</f>
@@ -1767,15 +1791,15 @@
         <v>75</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B33" s="30">
         <f>B31+1</f>
@@ -1789,15 +1813,15 @@
         <v>75</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B34" s="30">
         <f>B33</f>
@@ -1811,13 +1835,13 @@
         <v>75</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -1839,7 +1863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>78</v>
       </c>
@@ -1861,7 +1885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>79</v>
       </c>
@@ -1883,7 +1907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>80</v>
       </c>
@@ -1905,7 +1929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>81</v>
       </c>
@@ -1927,7 +1951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>82</v>
       </c>
@@ -1949,7 +1973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>83</v>
       </c>
@@ -1971,7 +1995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>84</v>
       </c>
@@ -1993,7 +2017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>85</v>
       </c>
@@ -2015,7 +2039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>86</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>87</v>
       </c>
@@ -2059,7 +2083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>88</v>
       </c>
@@ -2081,7 +2105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>89</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>90</v>
       </c>
@@ -2124,7 +2148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>91</v>
       </c>
@@ -2146,7 +2170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>92</v>
       </c>
@@ -2168,7 +2192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>93</v>
       </c>
@@ -2190,7 +2214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>94</v>
       </c>
@@ -2212,7 +2236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>95</v>
       </c>
@@ -2233,7 +2257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>96</v>
       </c>
@@ -2255,7 +2279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>97</v>
       </c>
@@ -2277,7 +2301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>98</v>
       </c>
@@ -2299,7 +2323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>99</v>
       </c>
@@ -2321,7 +2345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>100</v>
       </c>
@@ -2343,7 +2367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>101</v>
       </c>
@@ -2364,7 +2388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>102</v>
       </c>
@@ -2386,7 +2410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>103</v>
       </c>
@@ -2408,7 +2432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>104</v>
       </c>
@@ -2430,7 +2454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>105</v>
       </c>
@@ -2452,7 +2476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>106</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>107</v>
       </c>
@@ -2495,7 +2519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>108</v>
       </c>
@@ -2517,7 +2541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>109</v>
       </c>
@@ -2539,7 +2563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>110</v>
       </c>
@@ -2561,7 +2585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
         <v>111</v>
       </c>
@@ -2583,7 +2607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>112</v>
       </c>
@@ -2605,7 +2629,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>113</v>
       </c>
@@ -2626,7 +2650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
         <v>114</v>
       </c>
@@ -2648,7 +2672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>115</v>
       </c>
@@ -2670,7 +2694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>116</v>
       </c>
@@ -2692,7 +2716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
         <v>117</v>
       </c>
@@ -2714,7 +2738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>118</v>
       </c>
@@ -2736,7 +2760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
         <v>119</v>
       </c>
@@ -2746,14 +2770,14 @@
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>24</v>
       </c>
@@ -2770,7 +2794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -2787,7 +2811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>2</v>
       </c>
@@ -2804,12 +2828,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82" s="14"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2819,7 +2843,7 @@
       <c r="D83"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2827,7 +2851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2837,13 +2861,13 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86" s="17"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2852,7 +2876,7 @@
       </c>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2885,7 @@
       </c>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -2870,13 +2894,13 @@
       </c>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90" s="17"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2886,7 +2910,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2896,21 +2920,21 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93" s="17"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
